--- a/src/main/resources/templates/体育产业数据导入模版.xlsx
+++ b/src/main/resources/templates/体育产业数据导入模版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huadi/Documents/workspace/personal/hyd-server/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F18724-451E-B242-9B27-7589C2750390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596C6A82-C3DE-494B-AB14-4965DBF5FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="核心指标总表" sheetId="1" r:id="rId1"/>
@@ -55,56 +55,59 @@
     <t>从业人员数量（万）</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>总产值（亿元）</t>
+  </si>
+  <si>
+    <t>增长率（%）</t>
+  </si>
+  <si>
+    <t>数据来源 / 备注</t>
+  </si>
+  <si>
+    <t>市场主体类型（如体育管理活动 / 竞赛表演等）</t>
+  </si>
+  <si>
+    <t>占比（%）</t>
+  </si>
+  <si>
+    <t>培训项目（帆船、皮筏艇 / 羽毛球等）</t>
+  </si>
+  <si>
+    <t>参与率（%）</t>
+  </si>
+  <si>
+    <t>体育用品类型（运动鞋 / 运动服饰等）</t>
+  </si>
+  <si>
+    <t>购买率（%）</t>
+  </si>
+  <si>
+    <t>从业类型（体育管理活动 / 竞赛表演等）</t>
+  </si>
+  <si>
+    <t>人数（人）</t>
+  </si>
+  <si>
+    <t>体育消费总规模（万）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>人均体育消费（元）</t>
-  </si>
-  <si>
-    <t>人均体育场地面积（㎡）</t>
-  </si>
-  <si>
-    <t>重大项目签约（亿）</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>总产值（亿元）</t>
-  </si>
-  <si>
-    <t>增长率（%）</t>
-  </si>
-  <si>
-    <t>数据来源 / 备注</t>
-  </si>
-  <si>
-    <t>市场主体类型（如体育管理活动 / 竞赛表演等）</t>
-  </si>
-  <si>
-    <t>占比（%）</t>
-  </si>
-  <si>
-    <t>培训项目（帆船、皮筏艇 / 羽毛球等）</t>
-  </si>
-  <si>
-    <t>参与率（%）</t>
-  </si>
-  <si>
-    <t>体育用品类型（运动鞋 / 运动服饰等）</t>
-  </si>
-  <si>
-    <t>购买率（%）</t>
-  </si>
-  <si>
-    <t>从业类型（体育管理活动 / 竞赛表演等）</t>
-  </si>
-  <si>
-    <t>人数（人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育其他服务业营收增速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +117,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -142,8 +153,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -425,7 +439,8 @@
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="6" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" customWidth="1"/>
@@ -447,17 +462,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -488,13 +503,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -525,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -562,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -598,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -669,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
